--- a/Spot_Outcomes.xlsx
+++ b/Spot_Outcomes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jens/Documents/Python/hydrOpt/dynProg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884D1E77-B12A-CB4C-AF59-DC73F44C3297}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB8F0F4-6492-444E-A4D2-9B89AC3B4BF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="460" windowWidth="21320" windowHeight="17100" xr2:uid="{97F7539C-452B-A548-92BB-3CE594F78CD0}"/>
+    <workbookView xWindow="1100" yWindow="460" windowWidth="21320" windowHeight="17100" xr2:uid="{97F7539C-452B-A548-92BB-3CE594F78CD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Date</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Time</t>
   </si>
@@ -83,10 +80,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -102,6 +98,2060 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Price CH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$2:$B$271</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="270"/>
+                <c:pt idx="0">
+                  <c:v>8.0399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.73</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.37</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.22</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25.83</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.06</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27.66</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27.76</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.39</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20.63</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19.05</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17.28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25.08</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>26.16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>26.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16.05</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11.23</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.07</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.93</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.65</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.76</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20.57</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>25.7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>26.19</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>27.59</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>27.08</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>26.01</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>23.39</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20.63</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19.05</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>17.190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>17.28</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19.940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>25.08</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>26.16</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>26.4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>16.05</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>11.23</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.07</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.93</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.65</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9.76</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>20.57</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>25.7</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>26.19</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>27.59</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>27.08</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>26.01</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>23.39</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>22.02</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>21.09</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>21.04</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>21.25</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>21.7</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>24.03</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>26.57</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>26.08</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>25.95</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>25.09</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>22.67</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>21.81</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>20.05</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>18.329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>18.09</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>18.510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>20.53</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>23.82</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>26.42</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>26.45</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>27.26</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>22.05</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>21.47</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>21.06</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>20.22</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>20.71</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>21.16</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>22.02</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>22.55</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>21.75</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>18.04</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>15.94</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>14.84</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>10.43</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.45</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>14.88</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>18.77</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>23.92</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>23.98</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>24.46</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>22.82</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>22.31</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>19.309999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7462-D444-BDFC-26E798DF69C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Price DE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$2:$C$271</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="270"/>
+                <c:pt idx="0">
+                  <c:v>3.79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.68</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.86</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.73</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.54</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.03</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26.82</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33.380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39.909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31.45</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26.77</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.87</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16.37</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16.57</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25.15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>26.09</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24.99</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14.29</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14.16</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.07</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.46</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.0500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12.13</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21.85</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>27.34</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>37.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41.91</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>31.34</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>26.25</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>24.99</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19.87</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17.079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>16.37</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>16.57</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>25.15</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>26.09</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>24.99</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14.29</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>14.16</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.07</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.46</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8.0500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>12.13</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>21.85</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>27.34</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>37.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>41.91</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>31.34</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>26.25</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>24.99</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>22.08</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>21.58</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>21.06</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>21.99</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>22.44</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>24.41</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>32.93</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>47.84</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44.81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>26.41</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>24.9</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>23.87</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>20.440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>18.54</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>21.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>21.75</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>25.15</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>36.76</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>48.75</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42.77</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>32.380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>24.92</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>20.76</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>20.13</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>18.78</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>18.55</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>21.62</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>23.82</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>23.87</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>24.33</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>16.63</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>12.84</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>12.32</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>12.77</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>15.05</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>24.13</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>25.99</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>29.42</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>28.66</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>23.81</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>21.16</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>18.38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7462-D444-BDFC-26E798DF69C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Price FR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$D$2:$D$271</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="270"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.76</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.54</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.72</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.76</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.82</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.08</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.45</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19.88</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20.69</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.87</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16.010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14.89</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.94</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.61</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14.24</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.34</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14.29</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14.16</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12.26</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.36</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.0500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12.13</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12.19</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14.47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18.010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16.93</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19.739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.27</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19.87</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17.079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16.010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14.89</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>11.94</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>12.61</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14.24</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>15.34</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14.29</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>14.16</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>12.26</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.36</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8.0500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>12.13</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>12.19</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>14.47</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>17.010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>18.010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>16.93</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>19.739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>18.27</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>15.22</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>12.39</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>10.220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9.5500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>10.18</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>11.84</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>12.17</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>14.91</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>15.48</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>16.05</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>15.61</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>11.93</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>11.51</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>11.81</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>13.93</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>15.55</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>14.82</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>17.71</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>21.47</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>20.76</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>18.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>15.86</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>16.239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10.06</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>9.89</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>14.21</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>14.63</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>16.29</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>15.23</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>16.63</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>12.84</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>12.32</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>12.77</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>13.74</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>10.35</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>12.98</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>14.59</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>14.86</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>19.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>21.16</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>18.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7462-D444-BDFC-26E798DF69C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1149593072"/>
+        <c:axId val="1149635184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1149593072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1149635184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1149635184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1149593072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59F146D4-592C-2545-B302-7343DBD74E34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,15 +2451,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2513C063-BB01-5E4E-BC20-809D3836ED8C}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:D271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,1235 +2475,2439 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43935</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2">
+        <v>8.0399999999999991</v>
       </c>
       <c r="C2">
-        <v>8.0399999999999991</v>
+        <v>3.79</v>
       </c>
       <c r="D2">
-        <v>3.79</v>
-      </c>
-      <c r="E2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>43935</v>
-      </c>
-      <c r="B3" s="2">
-        <v>4.1666666666666664E-2</v>
+        <v>43935.041666666664</v>
+      </c>
+      <c r="B3">
+        <v>7.41</v>
       </c>
       <c r="C3">
-        <v>7.41</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E3">
         <v>8.23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>43935</v>
-      </c>
-      <c r="B4" s="2">
-        <v>8.3333333333333301E-2</v>
+        <v>43935.08333321759</v>
+      </c>
+      <c r="B4">
+        <v>8.0500000000000007</v>
       </c>
       <c r="C4">
-        <v>8.0500000000000007</v>
+        <v>3.9</v>
       </c>
       <c r="D4">
-        <v>3.9</v>
-      </c>
-      <c r="E4">
         <v>7.92</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>43935</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.125</v>
+        <v>43935.124999826388</v>
+      </c>
+      <c r="B5">
+        <v>8.6</v>
       </c>
       <c r="C5">
-        <v>8.6</v>
+        <v>3.96</v>
       </c>
       <c r="D5">
-        <v>3.96</v>
-      </c>
-      <c r="E5">
         <v>6.76</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>43935</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.16666666666666699</v>
+        <v>43935.166666435187</v>
+      </c>
+      <c r="B6">
+        <v>10.02</v>
       </c>
       <c r="C6">
-        <v>10.02</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D6">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E6">
         <v>7.38</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>43935</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.20833333333333301</v>
+        <v>43935.208333043978</v>
+      </c>
+      <c r="B7">
+        <v>13.32</v>
       </c>
       <c r="C7">
-        <v>13.32</v>
+        <v>15.88</v>
       </c>
       <c r="D7">
-        <v>15.88</v>
-      </c>
-      <c r="E7">
         <v>8.9600000000000009</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>43935</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.25</v>
+        <v>43935.249999652777</v>
+      </c>
+      <c r="B8">
+        <v>23.66</v>
       </c>
       <c r="C8">
-        <v>23.66</v>
+        <v>25.24</v>
       </c>
       <c r="D8">
-        <v>25.24</v>
-      </c>
-      <c r="E8">
         <v>14.01</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>43935</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.29166666666666702</v>
+        <v>43935.291666261575</v>
+      </c>
+      <c r="B9">
+        <v>24.7</v>
       </c>
       <c r="C9">
-        <v>24.7</v>
+        <v>32.74</v>
       </c>
       <c r="D9">
-        <v>32.74</v>
-      </c>
-      <c r="E9">
         <v>18.760000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>43935</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.33333333333333298</v>
+        <v>43935.333332870374</v>
+      </c>
+      <c r="B10">
+        <v>24.73</v>
       </c>
       <c r="C10">
-        <v>24.73</v>
+        <v>31.14</v>
       </c>
       <c r="D10">
-        <v>31.14</v>
-      </c>
-      <c r="E10">
         <v>21.13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>43935</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.375</v>
+        <v>43935.374999479165</v>
+      </c>
+      <c r="B11">
+        <v>23.73</v>
       </c>
       <c r="C11">
-        <v>23.73</v>
+        <v>23.68</v>
       </c>
       <c r="D11">
-        <v>23.68</v>
-      </c>
-      <c r="E11">
         <v>17.45</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>43935</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.41666666666666702</v>
+        <v>43935.416666087964</v>
+      </c>
+      <c r="B12">
+        <v>21.05</v>
       </c>
       <c r="C12">
-        <v>21.05</v>
+        <v>21.86</v>
       </c>
       <c r="D12">
-        <v>21.86</v>
-      </c>
-      <c r="E12">
         <v>12.1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>43935</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.45833333333333298</v>
+        <v>43935.458332696762</v>
+      </c>
+      <c r="B13">
+        <v>18.37</v>
       </c>
       <c r="C13">
-        <v>18.37</v>
+        <v>19.73</v>
       </c>
       <c r="D13">
-        <v>19.73</v>
-      </c>
-      <c r="E13">
         <v>11.76</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>43935</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.5</v>
+        <v>43935.499999305554</v>
+      </c>
+      <c r="B14">
+        <v>16.170000000000002</v>
       </c>
       <c r="C14">
-        <v>16.170000000000002</v>
+        <v>17.13</v>
       </c>
       <c r="D14">
         <v>17.13</v>
       </c>
-      <c r="E14">
-        <v>17.13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>43935</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.54166666666666696</v>
+        <v>43935.541665914352</v>
+      </c>
+      <c r="B15">
+        <v>15.52</v>
       </c>
       <c r="C15">
-        <v>15.52</v>
+        <v>16.12</v>
       </c>
       <c r="D15">
-        <v>16.12</v>
-      </c>
-      <c r="E15">
         <v>11.6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43935</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.58333333333333304</v>
+        <v>43935.583332523151</v>
+      </c>
+      <c r="B16">
+        <v>14.31</v>
       </c>
       <c r="C16">
-        <v>14.31</v>
+        <v>13.54</v>
       </c>
       <c r="D16">
         <v>13.54</v>
       </c>
-      <c r="E16">
-        <v>13.54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43935</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.625</v>
+        <v>43935.624999131942</v>
+      </c>
+      <c r="B17">
+        <v>15.41</v>
       </c>
       <c r="C17">
-        <v>15.41</v>
+        <v>15.03</v>
       </c>
       <c r="D17">
-        <v>15.03</v>
-      </c>
-      <c r="E17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>43935</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.66666666666666696</v>
+        <v>43935.66666574074</v>
+      </c>
+      <c r="B18">
+        <v>18.22</v>
       </c>
       <c r="C18">
-        <v>18.22</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D18">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="E18">
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43935</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.70833333333333304</v>
+        <v>43935.708332349539</v>
+      </c>
+      <c r="B19">
+        <v>22.5</v>
       </c>
       <c r="C19">
-        <v>22.5</v>
+        <v>23.15</v>
       </c>
       <c r="D19">
-        <v>23.15</v>
-      </c>
-      <c r="E19">
         <v>3.72</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43935</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.75</v>
+        <v>43935.74999895833</v>
+      </c>
+      <c r="B20">
+        <v>25.83</v>
       </c>
       <c r="C20">
-        <v>25.83</v>
+        <v>26.82</v>
       </c>
       <c r="D20">
-        <v>26.82</v>
-      </c>
-      <c r="E20">
         <v>10.76</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43935</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.79166666666666696</v>
+        <v>43935.791665567129</v>
+      </c>
+      <c r="B21">
+        <v>26.06</v>
       </c>
       <c r="C21">
-        <v>26.06</v>
+        <v>33.380000000000003</v>
       </c>
       <c r="D21">
-        <v>33.380000000000003</v>
-      </c>
-      <c r="E21">
         <v>17.82</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43935</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.83333333333333304</v>
+        <v>43935.833332175927</v>
+      </c>
+      <c r="B22">
+        <v>27.66</v>
       </c>
       <c r="C22">
-        <v>27.66</v>
+        <v>39.909999999999997</v>
       </c>
       <c r="D22">
-        <v>39.909999999999997</v>
-      </c>
-      <c r="E22">
         <v>14.08</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43935</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.875</v>
+        <v>43935.874998784719</v>
+      </c>
+      <c r="B23">
+        <v>27.76</v>
       </c>
       <c r="C23">
-        <v>27.76</v>
+        <v>31.45</v>
       </c>
       <c r="D23">
-        <v>31.45</v>
-      </c>
-      <c r="E23">
         <v>14.45</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43935</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.91666666666666696</v>
+        <v>43935.916665393517</v>
+      </c>
+      <c r="B24">
+        <v>25.39</v>
       </c>
       <c r="C24">
-        <v>25.39</v>
+        <v>26.77</v>
       </c>
       <c r="D24">
-        <v>26.77</v>
-      </c>
-      <c r="E24">
         <v>19.88</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43935</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.95833333333333304</v>
+        <v>43935.958332002316</v>
+      </c>
+      <c r="B25">
+        <v>22.16</v>
       </c>
       <c r="C25">
-        <v>22.16</v>
+        <v>24.28</v>
       </c>
       <c r="D25">
-        <v>24.28</v>
-      </c>
-      <c r="E25">
         <v>20.69</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0.999999999999997</v>
+        <v>43935.999998611114</v>
+      </c>
+      <c r="B26">
+        <v>20.63</v>
       </c>
       <c r="C26">
-        <v>20.63</v>
+        <v>19.87</v>
       </c>
       <c r="D26">
         <v>19.87</v>
       </c>
-      <c r="E26">
-        <v>19.87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1.0416666666666601</v>
+        <v>43936.041665219906</v>
+      </c>
+      <c r="B27">
+        <v>19.05</v>
       </c>
       <c r="C27">
-        <v>19.05</v>
+        <v>17.079999999999998</v>
       </c>
       <c r="D27">
         <v>17.079999999999998</v>
       </c>
-      <c r="E27">
-        <v>17.079999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B28" s="2">
-        <v>1.0833333333333299</v>
+        <v>43936.083331828704</v>
+      </c>
+      <c r="B28">
+        <v>17.5</v>
       </c>
       <c r="C28">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="D28">
-        <v>17</v>
-      </c>
-      <c r="E28">
         <v>16.010000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B29" s="2">
-        <v>1.125</v>
+        <v>43936.124998437503</v>
+      </c>
+      <c r="B29">
+        <v>17.190000000000001</v>
       </c>
       <c r="C29">
-        <v>17.190000000000001</v>
+        <v>16.37</v>
       </c>
       <c r="D29">
-        <v>16.37</v>
-      </c>
-      <c r="E29">
         <v>14.89</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B30" s="2">
-        <v>1.1666666666666601</v>
+        <v>43936.166665046294</v>
+      </c>
+      <c r="B30">
+        <v>17.28</v>
       </c>
       <c r="C30">
-        <v>17.28</v>
+        <v>16.57</v>
       </c>
       <c r="D30">
-        <v>16.57</v>
-      </c>
-      <c r="E30">
         <v>11.94</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B31" s="2">
-        <v>1.2083333333333299</v>
+        <v>43936.208331655092</v>
+      </c>
+      <c r="B31">
+        <v>19.940000000000001</v>
       </c>
       <c r="C31">
-        <v>19.940000000000001</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D31">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="E31">
         <v>12.61</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B32" s="2">
-        <v>1.24999999999999</v>
+        <v>43936.249998263891</v>
+      </c>
+      <c r="B32">
+        <v>25.08</v>
       </c>
       <c r="C32">
-        <v>25.08</v>
+        <v>25.15</v>
       </c>
       <c r="D32">
-        <v>25.15</v>
-      </c>
-      <c r="E32">
         <v>14.24</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B33" s="2">
-        <v>1.2916666666666601</v>
+        <v>43936.291664872682</v>
+      </c>
+      <c r="B33">
+        <v>26.16</v>
       </c>
       <c r="C33">
-        <v>26.16</v>
+        <v>26.09</v>
       </c>
       <c r="D33">
-        <v>26.09</v>
-      </c>
-      <c r="E33">
         <v>15.34</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B34" s="2">
-        <v>1.3333333333333299</v>
+        <v>43936.333331481481</v>
+      </c>
+      <c r="B34">
+        <v>26.4</v>
       </c>
       <c r="C34">
-        <v>26.4</v>
+        <v>24.99</v>
       </c>
       <c r="D34">
-        <v>24.99</v>
-      </c>
-      <c r="E34">
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B35" s="2">
-        <v>1.37499999999999</v>
+        <v>43936.374998090279</v>
+      </c>
+      <c r="B35">
+        <v>19.899999999999999</v>
       </c>
       <c r="C35">
-        <v>19.899999999999999</v>
+        <v>21.2</v>
       </c>
       <c r="D35">
-        <v>21.2</v>
-      </c>
-      <c r="E35">
         <v>16.7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B36" s="2">
-        <v>1.4166666666666601</v>
+        <v>43936.416664699071</v>
+      </c>
+      <c r="B36">
+        <v>16.05</v>
       </c>
       <c r="C36">
-        <v>16.05</v>
+        <v>14.29</v>
       </c>
       <c r="D36">
         <v>14.29</v>
       </c>
-      <c r="E36">
-        <v>14.29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B37" s="2">
-        <v>1.4583333333333199</v>
+        <v>43936.458331307869</v>
+      </c>
+      <c r="B37">
+        <v>12.6</v>
       </c>
       <c r="C37">
-        <v>12.6</v>
+        <v>14.16</v>
       </c>
       <c r="D37">
         <v>14.16</v>
       </c>
-      <c r="E37">
-        <v>14.16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B38" s="2">
-        <v>1.49999999999999</v>
+        <v>43936.499997916668</v>
+      </c>
+      <c r="B38">
+        <v>11.23</v>
       </c>
       <c r="C38">
-        <v>11.23</v>
+        <v>8.07</v>
       </c>
       <c r="D38">
-        <v>8.07</v>
-      </c>
-      <c r="E38">
         <v>12.26</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B39" s="2">
-        <v>1.5416666666666601</v>
+        <v>43936.541664525466</v>
+      </c>
+      <c r="B39">
+        <v>9.07</v>
       </c>
       <c r="C39">
-        <v>9.07</v>
+        <v>8</v>
       </c>
       <c r="D39">
         <v>8</v>
       </c>
-      <c r="E39">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B40" s="2">
-        <v>1.5833333333333199</v>
+        <v>43936.583331134258</v>
+      </c>
+      <c r="B40">
+        <v>7.93</v>
       </c>
       <c r="C40">
-        <v>7.93</v>
+        <v>4.46</v>
       </c>
       <c r="D40">
-        <v>4.46</v>
-      </c>
-      <c r="E40">
         <v>6.36</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B41" s="2">
-        <v>1.62499999999999</v>
+        <v>43936.624997743056</v>
+      </c>
+      <c r="B41">
+        <v>7.65</v>
       </c>
       <c r="C41">
-        <v>7.65</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="D41">
         <v>8.0500000000000007</v>
       </c>
-      <c r="E41">
-        <v>8.0500000000000007</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B42" s="2">
-        <v>1.6666666666666501</v>
+        <v>43936.666664351855</v>
+      </c>
+      <c r="B42">
+        <v>9.76</v>
       </c>
       <c r="C42">
-        <v>9.76</v>
+        <v>12.13</v>
       </c>
       <c r="D42">
         <v>12.13</v>
       </c>
-      <c r="E42">
-        <v>12.13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B43" s="2">
-        <v>1.7083333333333199</v>
+        <v>43936.708330960646</v>
+      </c>
+      <c r="B43">
+        <v>20.57</v>
       </c>
       <c r="C43">
-        <v>20.57</v>
+        <v>21.85</v>
       </c>
       <c r="D43">
-        <v>21.85</v>
-      </c>
-      <c r="E43">
         <v>12.19</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B44" s="2">
-        <v>1.74999999999999</v>
+        <v>43936.749997569445</v>
+      </c>
+      <c r="B44">
+        <v>25.7</v>
       </c>
       <c r="C44">
-        <v>25.7</v>
+        <v>27.34</v>
       </c>
       <c r="D44">
-        <v>27.34</v>
-      </c>
-      <c r="E44">
         <v>14.47</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B45" s="2">
-        <v>1.7916666666666501</v>
+        <v>43936.791664178243</v>
+      </c>
+      <c r="B45">
+        <v>26.19</v>
       </c>
       <c r="C45">
-        <v>26.19</v>
+        <v>37.840000000000003</v>
       </c>
       <c r="D45">
-        <v>37.840000000000003</v>
-      </c>
-      <c r="E45">
         <v>17.010000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B46" s="2">
-        <v>1.8333333333333199</v>
+        <v>43936.833330787034</v>
+      </c>
+      <c r="B46">
+        <v>27.59</v>
       </c>
       <c r="C46">
-        <v>27.59</v>
+        <v>41.91</v>
       </c>
       <c r="D46">
-        <v>41.91</v>
-      </c>
-      <c r="E46">
         <v>18.010000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B47" s="2">
-        <v>1.87499999999999</v>
+        <v>43936.874997395833</v>
+      </c>
+      <c r="B47">
+        <v>27.08</v>
       </c>
       <c r="C47">
-        <v>27.08</v>
+        <v>31.34</v>
       </c>
       <c r="D47">
-        <v>31.34</v>
-      </c>
-      <c r="E47">
         <v>16.93</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B48" s="2">
-        <v>1.9166666666666501</v>
+        <v>43936.916664004631</v>
+      </c>
+      <c r="B48">
+        <v>26.01</v>
       </c>
       <c r="C48">
-        <v>26.01</v>
+        <v>26.25</v>
       </c>
       <c r="D48">
-        <v>26.25</v>
-      </c>
-      <c r="E48">
         <v>19.739999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B49" s="2">
-        <v>1.9583333333333199</v>
+        <v>43936.958330613423</v>
+      </c>
+      <c r="B49">
+        <v>23.39</v>
       </c>
       <c r="C49">
-        <v>23.39</v>
+        <v>24.99</v>
       </c>
       <c r="D49">
-        <v>24.99</v>
-      </c>
-      <c r="E49">
         <v>18.27</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B50" s="2">
-        <v>2</v>
+        <v>43936.999997222221</v>
+      </c>
+      <c r="B50">
+        <v>20.63</v>
       </c>
       <c r="C50">
-        <v>20.63</v>
+        <v>19.87</v>
       </c>
       <c r="D50">
         <v>19.87</v>
       </c>
-      <c r="E50">
-        <v>19.87</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B51" s="2">
-        <v>2.0416666666666701</v>
+        <v>43937.04166383102</v>
+      </c>
+      <c r="B51">
+        <v>19.05</v>
       </c>
       <c r="C51">
-        <v>19.05</v>
+        <v>17.079999999999998</v>
       </c>
       <c r="D51">
         <v>17.079999999999998</v>
       </c>
-      <c r="E51">
-        <v>17.079999999999998</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B52" s="2">
-        <v>2.0833333333333401</v>
+        <v>43937.083330439818</v>
+      </c>
+      <c r="B52">
+        <v>17.5</v>
       </c>
       <c r="C52">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="D52">
-        <v>17</v>
-      </c>
-      <c r="E52">
         <v>16.010000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B53" s="2">
-        <v>2.1250000000000102</v>
+        <v>43937.12499704861</v>
+      </c>
+      <c r="B53">
+        <v>17.190000000000001</v>
       </c>
       <c r="C53">
-        <v>17.190000000000001</v>
+        <v>16.37</v>
       </c>
       <c r="D53">
-        <v>16.37</v>
-      </c>
-      <c r="E53">
         <v>14.89</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B54" s="2">
-        <v>2.1666666666666798</v>
+        <v>43937.166663657408</v>
+      </c>
+      <c r="B54">
+        <v>17.28</v>
       </c>
       <c r="C54">
-        <v>17.28</v>
+        <v>16.57</v>
       </c>
       <c r="D54">
-        <v>16.57</v>
-      </c>
-      <c r="E54">
         <v>11.94</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B55" s="2">
-        <v>2.2083333333333499</v>
+        <v>43937.208330266207</v>
+      </c>
+      <c r="B55">
+        <v>19.940000000000001</v>
       </c>
       <c r="C55">
-        <v>19.940000000000001</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D55">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="E55">
         <v>12.61</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B56" s="2">
-        <v>2.25000000000002</v>
+        <v>43937.249996874998</v>
+      </c>
+      <c r="B56">
+        <v>25.08</v>
       </c>
       <c r="C56">
-        <v>25.08</v>
+        <v>25.15</v>
       </c>
       <c r="D56">
-        <v>25.15</v>
-      </c>
-      <c r="E56">
         <v>14.24</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B57" s="2">
-        <v>2.2916666666666901</v>
+        <v>43937.291663483797</v>
+      </c>
+      <c r="B57">
+        <v>26.16</v>
       </c>
       <c r="C57">
-        <v>26.16</v>
+        <v>26.09</v>
       </c>
       <c r="D57">
-        <v>26.09</v>
-      </c>
-      <c r="E57">
         <v>15.34</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B58" s="2">
-        <v>2.3333333333333601</v>
+        <v>43937.333330092595</v>
+      </c>
+      <c r="B58">
+        <v>26.4</v>
       </c>
       <c r="C58">
-        <v>26.4</v>
+        <v>24.99</v>
       </c>
       <c r="D58">
-        <v>24.99</v>
-      </c>
-      <c r="E58">
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B59" s="2">
-        <v>2.3750000000000302</v>
+        <v>43937.374996701386</v>
+      </c>
+      <c r="B59">
+        <v>19.899999999999999</v>
       </c>
       <c r="C59">
-        <v>19.899999999999999</v>
+        <v>21.2</v>
       </c>
       <c r="D59">
-        <v>21.2</v>
-      </c>
-      <c r="E59">
         <v>16.7</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B60" s="2">
-        <v>2.4166666666666998</v>
+        <v>43937.416663310185</v>
+      </c>
+      <c r="B60">
+        <v>16.05</v>
       </c>
       <c r="C60">
-        <v>16.05</v>
+        <v>14.29</v>
       </c>
       <c r="D60">
         <v>14.29</v>
       </c>
-      <c r="E60">
-        <v>14.29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B61" s="2">
-        <v>2.4583333333333699</v>
+        <v>43937.458329918984</v>
+      </c>
+      <c r="B61">
+        <v>12.6</v>
       </c>
       <c r="C61">
-        <v>12.6</v>
+        <v>14.16</v>
       </c>
       <c r="D61">
         <v>14.16</v>
       </c>
-      <c r="E61">
-        <v>14.16</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B62" s="2">
-        <v>2.50000000000004</v>
+        <v>43937.499996527775</v>
+      </c>
+      <c r="B62">
+        <v>11.23</v>
       </c>
       <c r="C62">
-        <v>11.23</v>
+        <v>8.07</v>
       </c>
       <c r="D62">
-        <v>8.07</v>
-      </c>
-      <c r="E62">
         <v>12.26</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B63" s="2">
-        <v>2.54166666666671</v>
+        <v>43937.541663136573</v>
+      </c>
+      <c r="B63">
+        <v>9.07</v>
       </c>
       <c r="C63">
-        <v>9.07</v>
+        <v>8</v>
       </c>
       <c r="D63">
         <v>8</v>
       </c>
-      <c r="E63">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B64" s="2">
-        <v>2.5833333333333801</v>
+        <v>43937.583329745372</v>
+      </c>
+      <c r="B64">
+        <v>7.93</v>
       </c>
       <c r="C64">
-        <v>7.93</v>
+        <v>4.46</v>
       </c>
       <c r="D64">
-        <v>4.46</v>
-      </c>
-      <c r="E64">
         <v>6.36</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B65" s="2">
-        <v>2.6250000000000502</v>
+        <v>43937.624996354163</v>
+      </c>
+      <c r="B65">
+        <v>7.65</v>
       </c>
       <c r="C65">
-        <v>7.65</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="D65">
         <v>8.0500000000000007</v>
       </c>
-      <c r="E65">
-        <v>8.0500000000000007</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B66" s="2">
-        <v>2.6666666666667198</v>
+        <v>43937.666662962962</v>
+      </c>
+      <c r="B66">
+        <v>9.76</v>
       </c>
       <c r="C66">
-        <v>9.76</v>
+        <v>12.13</v>
       </c>
       <c r="D66">
         <v>12.13</v>
       </c>
-      <c r="E66">
-        <v>12.13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B67" s="2">
-        <v>2.7083333333333899</v>
+        <v>43937.70832957176</v>
+      </c>
+      <c r="B67">
+        <v>20.57</v>
       </c>
       <c r="C67">
-        <v>20.57</v>
+        <v>21.85</v>
       </c>
       <c r="D67">
-        <v>21.85</v>
-      </c>
-      <c r="E67">
         <v>12.19</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B68" s="2">
-        <v>2.75000000000006</v>
+        <v>43937.749996180559</v>
+      </c>
+      <c r="B68">
+        <v>25.7</v>
       </c>
       <c r="C68">
-        <v>25.7</v>
+        <v>27.34</v>
       </c>
       <c r="D68">
-        <v>27.34</v>
-      </c>
-      <c r="E68">
         <v>14.47</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B69" s="2">
-        <v>2.79166666666673</v>
+        <v>43937.79166278935</v>
+      </c>
+      <c r="B69">
+        <v>26.19</v>
       </c>
       <c r="C69">
-        <v>26.19</v>
+        <v>37.840000000000003</v>
       </c>
       <c r="D69">
-        <v>37.840000000000003</v>
-      </c>
-      <c r="E69">
         <v>17.010000000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B70" s="2">
-        <v>2.8333333333334001</v>
+        <v>43937.833329398149</v>
+      </c>
+      <c r="B70">
+        <v>27.59</v>
       </c>
       <c r="C70">
-        <v>27.59</v>
+        <v>41.91</v>
       </c>
       <c r="D70">
-        <v>41.91</v>
-      </c>
-      <c r="E70">
         <v>18.010000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B71" s="2">
-        <v>2.8750000000000702</v>
+        <v>43937.874996006947</v>
+      </c>
+      <c r="B71">
+        <v>27.08</v>
       </c>
       <c r="C71">
-        <v>27.08</v>
+        <v>31.34</v>
       </c>
       <c r="D71">
-        <v>31.34</v>
-      </c>
-      <c r="E71">
         <v>16.93</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B72" s="2">
-        <v>2.9166666666667398</v>
+        <v>43937.916662615738</v>
+      </c>
+      <c r="B72">
+        <v>26.01</v>
       </c>
       <c r="C72">
-        <v>26.01</v>
+        <v>26.25</v>
       </c>
       <c r="D72">
-        <v>26.25</v>
-      </c>
-      <c r="E72">
         <v>19.739999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B73" s="2">
-        <v>2.9583333333334099</v>
+        <v>43937.958329224537</v>
+      </c>
+      <c r="B73">
+        <v>23.39</v>
       </c>
       <c r="C73">
-        <v>23.39</v>
+        <v>24.99</v>
       </c>
       <c r="D73">
-        <v>24.99</v>
-      </c>
-      <c r="E73">
         <v>18.27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>43937.999995833336</v>
+      </c>
+      <c r="B74">
+        <v>22.02</v>
+      </c>
+      <c r="C74">
+        <v>22.08</v>
+      </c>
+      <c r="D74">
+        <v>15.22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>43938.041662442127</v>
+      </c>
+      <c r="B75">
+        <v>21.09</v>
+      </c>
+      <c r="C75">
+        <v>21.58</v>
+      </c>
+      <c r="D75">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>43938.083329050925</v>
+      </c>
+      <c r="B76">
+        <v>21.04</v>
+      </c>
+      <c r="C76">
+        <v>21.06</v>
+      </c>
+      <c r="D76">
+        <v>12.39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>43938.124995659724</v>
+      </c>
+      <c r="B77">
+        <v>21.25</v>
+      </c>
+      <c r="C77">
+        <v>21.99</v>
+      </c>
+      <c r="D77">
+        <v>10.220000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>43938.166662268515</v>
+      </c>
+      <c r="B78">
+        <v>21.7</v>
+      </c>
+      <c r="C78">
+        <v>22.44</v>
+      </c>
+      <c r="D78">
+        <v>9.5500000000000007</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>43938.208328877314</v>
+      </c>
+      <c r="B79">
+        <v>24.03</v>
+      </c>
+      <c r="C79">
+        <v>24.41</v>
+      </c>
+      <c r="D79">
+        <v>10.18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>43938.249995486112</v>
+      </c>
+      <c r="B80">
+        <v>26.57</v>
+      </c>
+      <c r="C80">
+        <v>32.93</v>
+      </c>
+      <c r="D80">
+        <v>11.84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>43938.291662094911</v>
+      </c>
+      <c r="B81">
+        <v>26.08</v>
+      </c>
+      <c r="C81">
+        <v>47.84</v>
+      </c>
+      <c r="D81">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>43938.333328703702</v>
+      </c>
+      <c r="B82">
+        <v>25.95</v>
+      </c>
+      <c r="C82">
+        <v>44.81</v>
+      </c>
+      <c r="D82">
+        <v>12.17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>43938.374995312501</v>
+      </c>
+      <c r="B83">
+        <v>25.09</v>
+      </c>
+      <c r="C83">
+        <v>26.41</v>
+      </c>
+      <c r="D83">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>43938.416661921299</v>
+      </c>
+      <c r="B84">
+        <v>22.67</v>
+      </c>
+      <c r="C84">
+        <v>24.9</v>
+      </c>
+      <c r="D84">
+        <v>14.91</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>43938.458328530091</v>
+      </c>
+      <c r="B85">
+        <v>21.81</v>
+      </c>
+      <c r="C85">
+        <v>23.87</v>
+      </c>
+      <c r="D85">
+        <v>15.48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>43938.499995138889</v>
+      </c>
+      <c r="B86">
+        <v>20.05</v>
+      </c>
+      <c r="C86">
+        <v>20.440000000000001</v>
+      </c>
+      <c r="D86">
+        <v>16.05</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>43938.541661747688</v>
+      </c>
+      <c r="B87">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="C87">
+        <v>18.07</v>
+      </c>
+      <c r="D87">
+        <v>15.61</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>43938.583328356479</v>
+      </c>
+      <c r="B88">
+        <v>18.09</v>
+      </c>
+      <c r="C88">
+        <v>18.54</v>
+      </c>
+      <c r="D88">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>43938.624994965277</v>
+      </c>
+      <c r="B89">
+        <v>18.510000000000002</v>
+      </c>
+      <c r="C89">
+        <v>21.87</v>
+      </c>
+      <c r="D89">
+        <v>11.93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>43938.666661574076</v>
+      </c>
+      <c r="B90">
+        <v>20.53</v>
+      </c>
+      <c r="C90">
+        <v>21.75</v>
+      </c>
+      <c r="D90">
+        <v>11.51</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>43938.708328182867</v>
+      </c>
+      <c r="B91">
+        <v>23.82</v>
+      </c>
+      <c r="C91">
+        <v>25.15</v>
+      </c>
+      <c r="D91">
+        <v>11.81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>43938.749994791666</v>
+      </c>
+      <c r="B92">
+        <v>26.42</v>
+      </c>
+      <c r="C92">
+        <v>36.76</v>
+      </c>
+      <c r="D92">
+        <v>13.93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>43938.791661400464</v>
+      </c>
+      <c r="B93">
+        <v>26.45</v>
+      </c>
+      <c r="C93">
+        <v>48.75</v>
+      </c>
+      <c r="D93">
+        <v>15.55</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>43938.833328009256</v>
+      </c>
+      <c r="B94">
+        <v>27</v>
+      </c>
+      <c r="C94">
+        <v>42.77</v>
+      </c>
+      <c r="D94">
+        <v>14.82</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>43938.874994618054</v>
+      </c>
+      <c r="B95">
+        <v>27.26</v>
+      </c>
+      <c r="C95">
+        <v>32.380000000000003</v>
+      </c>
+      <c r="D95">
+        <v>17.71</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>43938.916661226853</v>
+      </c>
+      <c r="B96">
+        <v>23.7</v>
+      </c>
+      <c r="C96">
+        <v>24.92</v>
+      </c>
+      <c r="D96">
+        <v>21.47</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>43938.958327835651</v>
+      </c>
+      <c r="B97">
+        <v>20.12</v>
+      </c>
+      <c r="C97">
+        <v>20.76</v>
+      </c>
+      <c r="D97">
+        <v>20.76</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>43938.999994444443</v>
+      </c>
+      <c r="B98">
+        <v>22.05</v>
+      </c>
+      <c r="C98">
+        <v>22.1</v>
+      </c>
+      <c r="D98">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>43939.041661053241</v>
+      </c>
+      <c r="B99">
+        <v>21.9</v>
+      </c>
+      <c r="C99">
+        <v>20.13</v>
+      </c>
+      <c r="D99">
+        <v>18.149999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>43939.08332766204</v>
+      </c>
+      <c r="B100">
+        <v>21.47</v>
+      </c>
+      <c r="C100">
+        <v>18.78</v>
+      </c>
+      <c r="D100">
+        <v>15.86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>43939.124994270831</v>
+      </c>
+      <c r="B101">
+        <v>21.06</v>
+      </c>
+      <c r="C101">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D101">
+        <v>16.239999999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>43939.166660879629</v>
+      </c>
+      <c r="B102">
+        <v>20.22</v>
+      </c>
+      <c r="C102">
+        <v>18.55</v>
+      </c>
+      <c r="D102">
+        <v>10.06</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>43939.208327488428</v>
+      </c>
+      <c r="B103">
+        <v>20.71</v>
+      </c>
+      <c r="C103">
+        <v>19.07</v>
+      </c>
+      <c r="D103">
+        <v>9.89</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>43939.249994097219</v>
+      </c>
+      <c r="B104">
+        <v>21.16</v>
+      </c>
+      <c r="C104">
+        <v>21.62</v>
+      </c>
+      <c r="D104">
+        <v>14.21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>43939.291660706018</v>
+      </c>
+      <c r="B105">
+        <v>22.02</v>
+      </c>
+      <c r="C105">
+        <v>23.82</v>
+      </c>
+      <c r="D105">
+        <v>14.63</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>43939.333327314816</v>
+      </c>
+      <c r="B106">
+        <v>22.55</v>
+      </c>
+      <c r="C106">
+        <v>23.87</v>
+      </c>
+      <c r="D106">
+        <v>16.29</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>43939.374993923608</v>
+      </c>
+      <c r="B107">
+        <v>21.75</v>
+      </c>
+      <c r="C107">
+        <v>24.33</v>
+      </c>
+      <c r="D107">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>43939.416660532406</v>
+      </c>
+      <c r="B108">
+        <v>18.04</v>
+      </c>
+      <c r="C108">
+        <v>17.3</v>
+      </c>
+      <c r="D108">
+        <v>15.23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>43939.458327141205</v>
+      </c>
+      <c r="B109">
+        <v>15.94</v>
+      </c>
+      <c r="C109">
+        <v>16.63</v>
+      </c>
+      <c r="D109">
+        <v>16.63</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>43939.499993750003</v>
+      </c>
+      <c r="B110">
+        <v>14.84</v>
+      </c>
+      <c r="C110">
+        <v>16.8</v>
+      </c>
+      <c r="D110">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>43939.541660358795</v>
+      </c>
+      <c r="B111">
+        <v>12.5</v>
+      </c>
+      <c r="C111">
+        <v>12.84</v>
+      </c>
+      <c r="D111">
+        <v>12.84</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>43939.583326967593</v>
+      </c>
+      <c r="B112">
+        <v>10.43</v>
+      </c>
+      <c r="C112">
+        <v>12.32</v>
+      </c>
+      <c r="D112">
+        <v>12.32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>43939.624993576392</v>
+      </c>
+      <c r="B113">
+        <v>11.45</v>
+      </c>
+      <c r="C113">
+        <v>12.77</v>
+      </c>
+      <c r="D113">
+        <v>12.77</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>43939.666660185183</v>
+      </c>
+      <c r="B114">
+        <v>14.88</v>
+      </c>
+      <c r="C114">
+        <v>15.05</v>
+      </c>
+      <c r="D114">
+        <v>13.74</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>43939.708326793982</v>
+      </c>
+      <c r="B115">
+        <v>18.77</v>
+      </c>
+      <c r="C115">
+        <v>24.13</v>
+      </c>
+      <c r="D115">
+        <v>10.35</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>43939.74999340278</v>
+      </c>
+      <c r="B116">
+        <v>23.92</v>
+      </c>
+      <c r="C116">
+        <v>25.99</v>
+      </c>
+      <c r="D116">
+        <v>12.98</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>43939.791660011571</v>
+      </c>
+      <c r="B117">
+        <v>23.98</v>
+      </c>
+      <c r="C117">
+        <v>29.42</v>
+      </c>
+      <c r="D117">
+        <v>14.59</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>43939.83332662037</v>
+      </c>
+      <c r="B118">
+        <v>24.46</v>
+      </c>
+      <c r="C118">
+        <v>28.66</v>
+      </c>
+      <c r="D118">
+        <v>14.86</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>43939.874993229168</v>
+      </c>
+      <c r="B119">
+        <v>22.82</v>
+      </c>
+      <c r="C119">
+        <v>23.81</v>
+      </c>
+      <c r="D119">
+        <v>19.309999999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>43939.91665983796</v>
+      </c>
+      <c r="B120">
+        <v>22.31</v>
+      </c>
+      <c r="C120">
+        <v>21.16</v>
+      </c>
+      <c r="D120">
+        <v>21.16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>43939.958326446758</v>
+      </c>
+      <c r="B121">
+        <v>19.309999999999999</v>
+      </c>
+      <c r="C121">
+        <v>18.38</v>
+      </c>
+      <c r="D121">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>43939.999993055557</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>43940.041659664355</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>43940.083326273147</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>43940.124992881945</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>43940.166659490744</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>43940.208326099535</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>43940.249992708334</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>43940.291659317132</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>43940.333325925923</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>43940.374992534722</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>43940.416659143521</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>43940.458325752312</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>43940.49999236111</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>43940.541658969909</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>43940.5833255787</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>43940.624992187499</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>43940.666658796297</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>43940.708325405096</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>43940.749992013887</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>43940.791658622686</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>43940.833325231484</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>43940.874991840275</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>43940.916658449074</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>43940.958325057873</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>43940.999991666664</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>43941.041658275462</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>43941.083324884261</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>43941.124991493052</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>43941.166658101851</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>43941.208324710649</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>43941.249991319448</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>43941.291657928239</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>43941.333324537038</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>43941.374991145836</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>43941.416657754628</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>43941.458324363426</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>43941.499990972225</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>43941.541657581016</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>43941.583324189814</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>43941.624990798613</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>43941.666657407404</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>43941.708324016203</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>43941.749990625001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>43941.7916572338</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>43941.833323842591</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>43941.87499045139</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>43941.916657060188</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>43941.95832366898</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>43941.999990277778</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>43942.041656886577</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>43942.083323495368</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>43942.124990104166</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>43942.166656712965</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>43942.208323321756</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>43942.249989930555</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>43942.291656539353</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>43942.333323148145</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>43942.374989756943</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>43942.416656365742</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>43942.45832297454</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>43942.499989583332</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>43942.54165619213</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>43942.583322800929</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>43942.62498940972</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>43942.666656018519</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>43942.708322627317</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>43942.749989236108</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>43942.791655844907</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>43942.833322453705</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>43942.874989062497</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>43942.916655671295</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>43942.958322280094</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>43942.999988888892</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>43943.041655497684</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>43943.083322106482</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>43943.124988715281</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>43943.166655324072</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>43943.208321932871</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>43943.249988541669</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>43943.29165515046</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <v>43943.333321759259</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <v>43943.374988368058</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <v>43943.416654976849</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <v>43943.458321585647</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <v>43943.499988194446</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <v>43943.541654803237</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <v>43943.583321412036</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <v>43943.624988020834</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <v>43943.666654629633</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <v>43943.708321238424</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <v>43943.749987847223</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <v>43943.791654456021</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <v>43943.833321064812</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <v>43943.874987673611</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <v>43943.91665428241</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
+        <v>43943.958320891201</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
+        <v>43943.999987499999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <v>43944.041654108798</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <v>43944.083320717589</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <v>43944.124987326388</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <v>43944.166653935186</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <v>43944.208320543985</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <v>43944.249987152776</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <v>43944.291653761575</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <v>43944.333320370373</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <v>43944.374986979165</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <v>43944.416653587963</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <v>43944.458320196762</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <v>43944.499986805553</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <v>43944.541653414351</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <v>43944.58332002315</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <v>43944.624986631941</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <v>43944.66665324074</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <v>43944.708319849538</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <v>43944.749986458337</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <v>43944.791653067128</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
+        <v>43944.833319675927</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <v>43944.874986284725</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <v>43944.916652893517</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <v>43944.958319502315</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <v>43944.999986111114</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <v>43945.041652719905</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <v>43945.083319328704</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <v>43945.124985937502</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <v>43945.166652546293</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <v>43945.208319155092</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <v>43945.24998576389</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <v>43945.291652372682</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
+        <v>43945.33331898148</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
+        <v>43945.374985590279</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
+        <v>43945.416652199077</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
+        <v>43945.458318807869</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
+        <v>43945.499985416667</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
+        <v>43945.541652025466</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
+        <v>43945.583318634257</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" s="1">
+        <v>43945.624985243056</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258" s="1">
+        <v>43945.666651851854</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
+        <v>43945.708318460645</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260" s="1">
+        <v>43945.749985069444</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
+        <v>43945.791651678242</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
+        <v>43945.833318287034</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
+        <v>43945.874984895832</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
+        <v>43945.916651504631</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <v>43945.958318113429</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <v>43945.999984722221</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <v>43946.041651331019</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
+        <v>43946.083317939818</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
+        <v>43946.124984548609</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
+        <v>43946.166651157408</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
+        <v>43946.208317766206</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Spot_Outcomes.xlsx
+++ b/Spot_Outcomes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jens/Documents/Python/hydrOpt/dynProg/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jens/Documents/Python/dynprog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB8F0F4-6492-444E-A4D2-9B89AC3B4BF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F38324-CC01-D941-A784-F43BACED17C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="460" windowWidth="21320" windowHeight="17100" xr2:uid="{97F7539C-452B-A548-92BB-3CE594F78CD0}"/>
   </bookViews>
@@ -2453,8 +2453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2513C063-BB01-5E4E-BC20-809D3836ED8C}">
   <dimension ref="A1:D271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C264" sqref="C264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43938.708328182867</v>
+        <v>43938.708328645836</v>
       </c>
       <c r="B91">
         <v>23.82</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43938.749994791666</v>
+        <v>43938.749995312501</v>
       </c>
       <c r="B92">
         <v>26.42</v>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43938.791661400464</v>
+        <v>43938.791661979165</v>
       </c>
       <c r="B93">
         <v>26.45</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43938.833328009256</v>
+        <v>43938.833328645836</v>
       </c>
       <c r="B94">
         <v>27</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43938.874994618054</v>
+        <v>43938.874995312501</v>
       </c>
       <c r="B95">
         <v>27.26</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43938.916661226853</v>
+        <v>43938.916661979165</v>
       </c>
       <c r="B96">
         <v>23.7</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43938.958327835651</v>
+        <v>43938.958328645836</v>
       </c>
       <c r="B97">
         <v>20.12</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43938.999994444443</v>
+        <v>43938.999995312501</v>
       </c>
       <c r="B98">
         <v>22.05</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43939.041661053241</v>
+        <v>43939.041661979165</v>
       </c>
       <c r="B99">
         <v>21.9</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43939.08332766204</v>
+        <v>43939.083328645836</v>
       </c>
       <c r="B100">
         <v>21.47</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43939.124994270831</v>
+        <v>43939.124995312501</v>
       </c>
       <c r="B101">
         <v>21.06</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43939.166660879629</v>
+        <v>43939.166661979165</v>
       </c>
       <c r="B102">
         <v>20.22</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43939.208327488428</v>
+        <v>43939.208328645836</v>
       </c>
       <c r="B103">
         <v>20.71</v>
@@ -3906,7 +3906,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43939.249994097219</v>
+        <v>43939.249995312501</v>
       </c>
       <c r="B104">
         <v>21.16</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43939.291660706018</v>
+        <v>43939.291661979165</v>
       </c>
       <c r="B105">
         <v>22.02</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43939.333327314816</v>
+        <v>43939.333328645836</v>
       </c>
       <c r="B106">
         <v>22.55</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43939.374993923608</v>
+        <v>43939.374995312501</v>
       </c>
       <c r="B107">
         <v>21.75</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43939.416660532406</v>
+        <v>43939.416661979165</v>
       </c>
       <c r="B108">
         <v>18.04</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43939.458327141205</v>
+        <v>43939.458328645836</v>
       </c>
       <c r="B109">
         <v>15.94</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43939.499993750003</v>
+        <v>43939.499995312501</v>
       </c>
       <c r="B110">
         <v>14.84</v>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43939.541660358795</v>
+        <v>43939.541661979165</v>
       </c>
       <c r="B111">
         <v>12.5</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43939.583326967593</v>
+        <v>43939.583328645836</v>
       </c>
       <c r="B112">
         <v>10.43</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43939.624993576392</v>
+        <v>43939.624995312501</v>
       </c>
       <c r="B113">
         <v>11.45</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43939.666660185183</v>
+        <v>43939.666661979165</v>
       </c>
       <c r="B114">
         <v>14.88</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43939.708326793982</v>
+        <v>43939.708328645836</v>
       </c>
       <c r="B115">
         <v>18.77</v>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43939.74999340278</v>
+        <v>43939.749995312501</v>
       </c>
       <c r="B116">
         <v>23.92</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43939.791660011571</v>
+        <v>43939.791661979165</v>
       </c>
       <c r="B117">
         <v>23.98</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43939.83332662037</v>
+        <v>43939.833328645836</v>
       </c>
       <c r="B118">
         <v>24.46</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43939.874993229168</v>
+        <v>43939.874995312501</v>
       </c>
       <c r="B119">
         <v>22.82</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43939.91665983796</v>
+        <v>43939.916661979165</v>
       </c>
       <c r="B120">
         <v>22.31</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43939.958326446758</v>
+        <v>43939.958328645836</v>
       </c>
       <c r="B121">
         <v>19.309999999999999</v>
@@ -4158,752 +4158,752 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43939.999993055557</v>
+        <v>43939.999995312501</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43940.041659664355</v>
+        <v>43940.041661979165</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43940.083326273147</v>
+        <v>43940.083328645836</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43940.124992881945</v>
+        <v>43940.124995312501</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>43940.166659490744</v>
+        <v>43940.166661979165</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>43940.208326099535</v>
+        <v>43940.208328645836</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>43940.249992708334</v>
+        <v>43940.249995312501</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>43940.291659317132</v>
+        <v>43940.291661979165</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>43940.333325925923</v>
+        <v>43940.333328645836</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>43940.374992534722</v>
+        <v>43940.374995312501</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>43940.416659143521</v>
+        <v>43940.416661979165</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>43940.458325752312</v>
+        <v>43940.458328645836</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>43940.49999236111</v>
+        <v>43940.499995312501</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>43940.541658969909</v>
+        <v>43940.541661979165</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>43940.5833255787</v>
+        <v>43940.583328645836</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>43940.624992187499</v>
+        <v>43940.624995312501</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>43940.666658796297</v>
+        <v>43940.666661979165</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>43940.708325405096</v>
+        <v>43940.708328645836</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>43940.749992013887</v>
+        <v>43940.749995312501</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>43940.791658622686</v>
+        <v>43940.791661979165</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>43940.833325231484</v>
+        <v>43940.833328645836</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>43940.874991840275</v>
+        <v>43940.874995312501</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>43940.916658449074</v>
+        <v>43940.916661979165</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>43940.958325057873</v>
+        <v>43940.958328645836</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>43940.999991666664</v>
+        <v>43940.999995312501</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
-        <v>43941.041658275462</v>
+        <v>43941.041661979165</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>43941.083324884261</v>
+        <v>43941.083328645836</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>43941.124991493052</v>
+        <v>43941.124995312501</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
-        <v>43941.166658101851</v>
+        <v>43941.166661979165</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>43941.208324710649</v>
+        <v>43941.208328645836</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>43941.249991319448</v>
+        <v>43941.249995312501</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>43941.291657928239</v>
+        <v>43941.291661979165</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>43941.333324537038</v>
+        <v>43941.333328645836</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>43941.374991145836</v>
+        <v>43941.374995312501</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>43941.416657754628</v>
+        <v>43941.416661979165</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>43941.458324363426</v>
+        <v>43941.458328645836</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>43941.499990972225</v>
+        <v>43941.499995312501</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>43941.541657581016</v>
+        <v>43941.541661979165</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>43941.583324189814</v>
+        <v>43941.583328645836</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>43941.624990798613</v>
+        <v>43941.624995312501</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>43941.666657407404</v>
+        <v>43941.666661979165</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>43941.708324016203</v>
+        <v>43941.708328645836</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>43941.749990625001</v>
+        <v>43941.749995312501</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>43941.7916572338</v>
+        <v>43941.791661979165</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>43941.833323842591</v>
+        <v>43941.833328645836</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>43941.87499045139</v>
+        <v>43941.874995312501</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>43941.916657060188</v>
+        <v>43941.916661979165</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>43941.95832366898</v>
+        <v>43941.958328645836</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>43941.999990277778</v>
+        <v>43941.999995312501</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>43942.041656886577</v>
+        <v>43942.041661979165</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>43942.083323495368</v>
+        <v>43942.083328645836</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>43942.124990104166</v>
+        <v>43942.124995312501</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <v>43942.166656712965</v>
+        <v>43942.166661979165</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>43942.208323321756</v>
+        <v>43942.208328645836</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <v>43942.249989930555</v>
+        <v>43942.249995312501</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <v>43942.291656539353</v>
+        <v>43942.291661979165</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <v>43942.333323148145</v>
+        <v>43942.333328645836</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <v>43942.374989756943</v>
+        <v>43942.374995312501</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
-        <v>43942.416656365742</v>
+        <v>43942.416661979165</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>43942.45832297454</v>
+        <v>43942.458328645836</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <v>43942.499989583332</v>
+        <v>43942.499995312501</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
-        <v>43942.54165619213</v>
+        <v>43942.541661979165</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
-        <v>43942.583322800929</v>
+        <v>43942.583328645836</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <v>43942.62498940972</v>
+        <v>43942.624995312501</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <v>43942.666656018519</v>
+        <v>43942.666661979165</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
-        <v>43942.708322627317</v>
+        <v>43942.708328645836</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
-        <v>43942.749989236108</v>
+        <v>43942.749995312501</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
-        <v>43942.791655844907</v>
+        <v>43942.791661979165</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
-        <v>43942.833322453705</v>
+        <v>43942.833328645836</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
-        <v>43942.874989062497</v>
+        <v>43942.874995312501</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
-        <v>43942.916655671295</v>
+        <v>43942.916661979165</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
-        <v>43942.958322280094</v>
+        <v>43942.958328645836</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
-        <v>43942.999988888892</v>
+        <v>43942.999995312501</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
-        <v>43943.041655497684</v>
+        <v>43943.041661979165</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
-        <v>43943.083322106482</v>
+        <v>43943.083328645836</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
-        <v>43943.124988715281</v>
+        <v>43943.124995312501</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
-        <v>43943.166655324072</v>
+        <v>43943.166661979165</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
-        <v>43943.208321932871</v>
+        <v>43943.208328645836</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
-        <v>43943.249988541669</v>
+        <v>43943.249995312501</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
-        <v>43943.29165515046</v>
+        <v>43943.291661979165</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
-        <v>43943.333321759259</v>
+        <v>43943.333328645836</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
-        <v>43943.374988368058</v>
+        <v>43943.374995312501</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
-        <v>43943.416654976849</v>
+        <v>43943.416661979165</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
-        <v>43943.458321585647</v>
+        <v>43943.458328645836</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
-        <v>43943.499988194446</v>
+        <v>43943.499995312501</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
-        <v>43943.541654803237</v>
+        <v>43943.541661979165</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
-        <v>43943.583321412036</v>
+        <v>43943.583328645836</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
-        <v>43943.624988020834</v>
+        <v>43943.624995312501</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
-        <v>43943.666654629633</v>
+        <v>43943.666661979165</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
-        <v>43943.708321238424</v>
+        <v>43943.708328645836</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
-        <v>43943.749987847223</v>
+        <v>43943.749995312501</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
-        <v>43943.791654456021</v>
+        <v>43943.791661979165</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
-        <v>43943.833321064812</v>
+        <v>43943.833328645836</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
-        <v>43943.874987673611</v>
+        <v>43943.874995312501</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
-        <v>43943.91665428241</v>
+        <v>43943.916661979165</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
-        <v>43943.958320891201</v>
+        <v>43943.958328645836</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
-        <v>43943.999987499999</v>
+        <v>43943.999995312501</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
-        <v>43944.041654108798</v>
+        <v>43944.041661979165</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
-        <v>43944.083320717589</v>
+        <v>43944.083328645836</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
-        <v>43944.124987326388</v>
+        <v>43944.124995312501</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
-        <v>43944.166653935186</v>
+        <v>43944.166661979165</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
-        <v>43944.208320543985</v>
+        <v>43944.208328645836</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
-        <v>43944.249987152776</v>
+        <v>43944.249995312501</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
-        <v>43944.291653761575</v>
+        <v>43944.291661979165</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
-        <v>43944.333320370373</v>
+        <v>43944.333328645836</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
-        <v>43944.374986979165</v>
+        <v>43944.374995312501</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
-        <v>43944.416653587963</v>
+        <v>43944.416661979165</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
-        <v>43944.458320196762</v>
+        <v>43944.458328645836</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
-        <v>43944.499986805553</v>
+        <v>43944.499995312501</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
-        <v>43944.541653414351</v>
+        <v>43944.541661979165</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
-        <v>43944.58332002315</v>
+        <v>43944.583328645836</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
-        <v>43944.624986631941</v>
+        <v>43944.624995312501</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
-        <v>43944.66665324074</v>
+        <v>43944.666661979165</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
-        <v>43944.708319849538</v>
+        <v>43944.708328645836</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
-        <v>43944.749986458337</v>
+        <v>43944.749995312501</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
-        <v>43944.791653067128</v>
+        <v>43944.791661979165</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
-        <v>43944.833319675927</v>
+        <v>43944.833328645836</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
-        <v>43944.874986284725</v>
+        <v>43944.874995312501</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
-        <v>43944.916652893517</v>
+        <v>43944.916661979165</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
-        <v>43944.958319502315</v>
+        <v>43944.958328645836</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
-        <v>43944.999986111114</v>
+        <v>43944.999995312501</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
-        <v>43945.041652719905</v>
+        <v>43945.041661979165</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
-        <v>43945.083319328704</v>
+        <v>43945.083328645836</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
-        <v>43945.124985937502</v>
+        <v>43945.124995312501</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
-        <v>43945.166652546293</v>
+        <v>43945.166661979165</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
-        <v>43945.208319155092</v>
+        <v>43945.208328645836</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
-        <v>43945.24998576389</v>
+        <v>43945.249995312501</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
-        <v>43945.291652372682</v>
+        <v>43945.291661979165</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
-        <v>43945.33331898148</v>
+        <v>43945.333328645836</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
-        <v>43945.374985590279</v>
+        <v>43945.374995312501</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
-        <v>43945.416652199077</v>
+        <v>43945.416661979165</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
-        <v>43945.458318807869</v>
+        <v>43945.458328645836</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
-        <v>43945.499985416667</v>
+        <v>43945.499995312501</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
-        <v>43945.541652025466</v>
+        <v>43945.541661979165</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
-        <v>43945.583318634257</v>
+        <v>43945.583328645836</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
-        <v>43945.624985243056</v>
+        <v>43945.624995312501</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
-        <v>43945.666651851854</v>
+        <v>43945.666661979165</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
-        <v>43945.708318460645</v>
+        <v>43945.708328645836</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
-        <v>43945.749985069444</v>
+        <v>43945.749995312501</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
-        <v>43945.791651678242</v>
+        <v>43945.791661979165</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
-        <v>43945.833318287034</v>
+        <v>43945.833328645836</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
-        <v>43945.874984895832</v>
+        <v>43945.874995312501</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
-        <v>43945.916651504631</v>
+        <v>43945.916661979165</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
-        <v>43945.958318113429</v>
+        <v>43945.958328645836</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
-        <v>43945.999984722221</v>
+        <v>43945.999995312501</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
-        <v>43946.041651331019</v>
+        <v>43946.041661979165</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
-        <v>43946.083317939818</v>
+        <v>43946.083328645836</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
-        <v>43946.124984548609</v>
+        <v>43946.124995312501</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
-        <v>43946.166651157408</v>
+        <v>43946.166661979165</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
-        <v>43946.208317766206</v>
+        <v>43946.208328645836</v>
       </c>
     </row>
   </sheetData>

--- a/Spot_Outcomes.xlsx
+++ b/Spot_Outcomes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jens/Documents/Python/dynprog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F38324-CC01-D941-A784-F43BACED17C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1248E23-E9DA-8549-9864-91F7E513D9D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="460" windowWidth="21320" windowHeight="17100" xr2:uid="{97F7539C-452B-A548-92BB-3CE594F78CD0}"/>
   </bookViews>
@@ -542,6 +542,150 @@
                 <c:pt idx="119">
                   <c:v>19.309999999999999</c:v>
                 </c:pt>
+                <c:pt idx="144">
+                  <c:v>8.4700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>6.49</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>4.67</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3.98</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>4.17</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>9.02</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>18.940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>22.37</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>21.94</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>14.94</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>13.52</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>9.08</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6.24</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>12.84</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>15.13</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>20.41</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>18.670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>13.19</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>4.72</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>4.29</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-1.89</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-0.61</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>8.2799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>13.68</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>17.28</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>17.03</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>14.68</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>13.24</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>14.69</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>12.94</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>13.92</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>8.6199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>13.86</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>16.46</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>13.01</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>13.69</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>9.07</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -944,6 +1088,150 @@
                 <c:pt idx="119">
                   <c:v>18.38</c:v>
                 </c:pt>
+                <c:pt idx="144">
+                  <c:v>4.43</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>4.38</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3.69</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>4.78</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>22.82</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>22.93</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>11.72</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>5.46</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-4.9800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-29.7</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-44.25</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-39.49</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-23.71</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>16.38</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>17.809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>18.38</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>14.05</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>10.28</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>4.8499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>4.3099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3.69</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-0.59</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3.72</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>4.7300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>16.13</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>16.52</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>7.92</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-19.21</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-69.05</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-79.739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-80.09</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-83.94</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-80.02</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-78.09</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-23.12</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>5.53</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>10.99</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>10.99</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>11.17</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>8.31</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1345,6 +1633,150 @@
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>4.43</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>4.38</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3.69</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>4.7699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>12.77</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>13.97</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>12.02</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>6.91</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-0.09</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-22.96</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-23.12</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-14.63</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>14.23</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>15.02</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>15.81</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>14.05</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>13.39</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>6.31</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>4.3499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3.73</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3.72</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>4.7300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>11.43</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>11.17</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>8.33</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-8.65</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-3.33</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-0.92</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-3.99</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-8.44</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-0.09</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>10.99</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>10.99</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>11.17</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>10.99</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>9.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2453,8 +2885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2513C063-BB01-5E4E-BC20-809D3836ED8C}">
   <dimension ref="A1:D271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C264" sqref="C264"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="W38" sqref="W38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4271,322 +4703,754 @@
         <v>43940.916661979165</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>43940.958328645836</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>43940.999995312501</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B146">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="C146">
+        <v>4.43</v>
+      </c>
+      <c r="D146">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>43941.041661979165</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B147">
+        <v>6.49</v>
+      </c>
+      <c r="C147">
+        <v>4.38</v>
+      </c>
+      <c r="D147">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>43941.083328645836</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B148">
+        <v>4.67</v>
+      </c>
+      <c r="C148">
+        <v>3.69</v>
+      </c>
+      <c r="D148">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>43941.124995312501</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B149">
+        <v>3.98</v>
+      </c>
+      <c r="C149">
+        <v>0.66</v>
+      </c>
+      <c r="D149">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>43941.166661979165</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B150">
+        <v>4.17</v>
+      </c>
+      <c r="C150">
+        <v>0.03</v>
+      </c>
+      <c r="D150">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>43941.208328645836</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B151">
+        <v>9.02</v>
+      </c>
+      <c r="C151">
+        <v>4.78</v>
+      </c>
+      <c r="D151">
+        <v>4.7699999999999996</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>43941.249995312501</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B152">
+        <v>18.940000000000001</v>
+      </c>
+      <c r="C152">
+        <v>18</v>
+      </c>
+      <c r="D152">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>43941.291661979165</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B153">
+        <v>22.37</v>
+      </c>
+      <c r="C153">
+        <v>22.82</v>
+      </c>
+      <c r="D153">
+        <v>12.77</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>43941.333328645836</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B154">
+        <v>21.94</v>
+      </c>
+      <c r="C154">
+        <v>22.93</v>
+      </c>
+      <c r="D154">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>43941.374995312501</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B155">
+        <v>14.94</v>
+      </c>
+      <c r="C155">
+        <v>16.07</v>
+      </c>
+      <c r="D155">
+        <v>13.97</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>43941.416661979165</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B156">
+        <v>13.52</v>
+      </c>
+      <c r="C156">
+        <v>11.72</v>
+      </c>
+      <c r="D156">
+        <v>12.02</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>43941.458328645836</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B157">
+        <v>13.5</v>
+      </c>
+      <c r="C157">
+        <v>5.46</v>
+      </c>
+      <c r="D157">
+        <v>6.91</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>43941.499995312501</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B158">
+        <v>9.08</v>
+      </c>
+      <c r="C158">
+        <v>-4.9800000000000004</v>
+      </c>
+      <c r="D158">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>43941.541661979165</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B159">
+        <v>6.24</v>
+      </c>
+      <c r="C159">
+        <v>-29.7</v>
+      </c>
+      <c r="D159">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>43941.583328645836</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B160">
+        <v>0.79</v>
+      </c>
+      <c r="C160">
+        <v>-44.25</v>
+      </c>
+      <c r="D160">
+        <v>-22.96</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>43941.624995312501</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B161">
+        <v>0.02</v>
+      </c>
+      <c r="C161">
+        <v>-39.49</v>
+      </c>
+      <c r="D161">
+        <v>-23.12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>43941.666661979165</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B162">
+        <v>1.01</v>
+      </c>
+      <c r="C162">
+        <v>-23.71</v>
+      </c>
+      <c r="D162">
+        <v>-14.63</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>43941.708328645836</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B163">
+        <v>12.84</v>
+      </c>
+      <c r="C163">
+        <v>4.01</v>
+      </c>
+      <c r="D163">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>43941.749995312501</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B164">
+        <v>15.13</v>
+      </c>
+      <c r="C164">
+        <v>16.38</v>
+      </c>
+      <c r="D164">
+        <v>14.23</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>43941.791661979165</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B165">
+        <v>20.41</v>
+      </c>
+      <c r="C165">
+        <v>17.809999999999999</v>
+      </c>
+      <c r="D165">
+        <v>15.02</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>43941.833328645836</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B166">
+        <v>21.6</v>
+      </c>
+      <c r="C166">
+        <v>18.38</v>
+      </c>
+      <c r="D166">
+        <v>15.81</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>43941.874995312501</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B167">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="C167">
+        <v>14.05</v>
+      </c>
+      <c r="D167">
+        <v>14.05</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>43941.916661979165</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B168">
+        <v>15</v>
+      </c>
+      <c r="C168">
+        <v>10.28</v>
+      </c>
+      <c r="D168">
+        <v>13.39</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>43941.958328645836</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B169">
+        <v>13.19</v>
+      </c>
+      <c r="C169">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="D169">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>43941.999995312501</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B170">
+        <v>4.72</v>
+      </c>
+      <c r="C170">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="D170">
+        <v>6.31</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>43942.041661979165</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B171">
+        <v>4.29</v>
+      </c>
+      <c r="C171">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="D171">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>43942.083328645836</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B172">
+        <v>1.28</v>
+      </c>
+      <c r="C172">
+        <v>3.69</v>
+      </c>
+      <c r="D172">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>43942.124995312501</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B173">
+        <v>-1.89</v>
+      </c>
+      <c r="C173">
+        <v>-0.59</v>
+      </c>
+      <c r="D173">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>43942.166661979165</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B174">
+        <v>-0.61</v>
+      </c>
+      <c r="C174">
+        <v>3.72</v>
+      </c>
+      <c r="D174">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>43942.208328645836</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B175">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="C175">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="D175">
+        <v>4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>43942.249995312501</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B176">
+        <v>13.68</v>
+      </c>
+      <c r="C176">
+        <v>10</v>
+      </c>
+      <c r="D176">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>43942.291661979165</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B177">
+        <v>17.28</v>
+      </c>
+      <c r="C177">
+        <v>16.13</v>
+      </c>
+      <c r="D177">
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>43942.333328645836</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B178">
+        <v>17.03</v>
+      </c>
+      <c r="C178">
+        <v>16.52</v>
+      </c>
+      <c r="D178">
+        <v>11.17</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>43942.374995312501</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B179">
+        <v>14.68</v>
+      </c>
+      <c r="C179">
+        <v>7.92</v>
+      </c>
+      <c r="D179">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>43942.416661979165</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B180">
+        <v>13.24</v>
+      </c>
+      <c r="C180">
+        <v>-19.21</v>
+      </c>
+      <c r="D180">
+        <v>-8.65</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>43942.458328645836</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B181">
+        <v>14.69</v>
+      </c>
+      <c r="C181">
+        <v>-69.05</v>
+      </c>
+      <c r="D181">
+        <v>-3.33</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>43942.499995312501</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B182">
+        <v>12.94</v>
+      </c>
+      <c r="C182">
+        <v>-79.739999999999995</v>
+      </c>
+      <c r="D182">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>43942.541661979165</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B183">
+        <v>13.5</v>
+      </c>
+      <c r="C183">
+        <v>-80.09</v>
+      </c>
+      <c r="D183">
+        <v>-0.92</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>43942.583328645836</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B184">
+        <v>13.92</v>
+      </c>
+      <c r="C184">
+        <v>-83.94</v>
+      </c>
+      <c r="D184">
+        <v>-3.99</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>43942.624995312501</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B185">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="C185">
+        <v>-80.02</v>
+      </c>
+      <c r="D185">
+        <v>-8.44</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>43942.666661979165</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B186">
+        <v>9.9</v>
+      </c>
+      <c r="C186">
+        <v>-78.09</v>
+      </c>
+      <c r="D186">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>43942.708328645836</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B187">
+        <v>11.5</v>
+      </c>
+      <c r="C187">
+        <v>-23.12</v>
+      </c>
+      <c r="D187">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>43942.749995312501</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B188">
+        <v>13.86</v>
+      </c>
+      <c r="C188">
+        <v>5.53</v>
+      </c>
+      <c r="D188">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>43942.791661979165</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B189">
+        <v>15.2</v>
+      </c>
+      <c r="C189">
+        <v>10.99</v>
+      </c>
+      <c r="D189">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>43942.833328645836</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B190">
+        <v>16.46</v>
+      </c>
+      <c r="C190">
+        <v>10.99</v>
+      </c>
+      <c r="D190">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>43942.874995312501</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B191">
+        <v>13.01</v>
+      </c>
+      <c r="C191">
+        <v>11.17</v>
+      </c>
+      <c r="D191">
+        <v>11.17</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>43942.916661979165</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B192">
+        <v>13.69</v>
+      </c>
+      <c r="C192">
+        <v>7.6</v>
+      </c>
+      <c r="D192">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>43942.958328645836</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B193">
+        <v>9.07</v>
+      </c>
+      <c r="C193">
+        <v>8.31</v>
+      </c>
+      <c r="D193">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>43942.999995312501</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>43943.041661979165</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>43943.083328645836</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>43943.124995312501</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>43943.166661979165</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>43943.208328645836</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>43943.249995312501</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>43943.291661979165</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>43943.333328645836</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>43943.374995312501</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>43943.416661979165</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>43943.458328645836</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>43943.499995312501</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>43943.541661979165</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>43943.583328645836</v>
       </c>

--- a/Spot_Outcomes.xlsx
+++ b/Spot_Outcomes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jens/Documents/Python/dynprog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1248E23-E9DA-8549-9864-91F7E513D9D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609AB784-A95C-8D47-898C-989716376E2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="460" windowWidth="21320" windowHeight="17100" xr2:uid="{97F7539C-452B-A548-92BB-3CE594F78CD0}"/>
   </bookViews>
@@ -686,6 +686,150 @@
                 <c:pt idx="191">
                   <c:v>9.07</c:v>
                 </c:pt>
+                <c:pt idx="192">
+                  <c:v>8.08</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>6.85</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>6.42</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>5.87</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>7.33</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>8.27</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>16.690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>20.67</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>9.09</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>6.74</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>6.68</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>4.67</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>5.82</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>11.16</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>19.47</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>22.37</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>23.19</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>20.67</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>19.57</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>17.670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>20.09</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>18.34</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>18.57</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>18.48</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>19.84</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>24.59</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>19.59</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>18.82</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>19.13</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>17.59</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>16.79</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>15.01</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>15.02</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>15.54</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>19.09</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>20.99</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>20.04</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>22.26</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>24.71</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>24.32</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>21.38</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1232,6 +1376,150 @@
                 <c:pt idx="191">
                   <c:v>8.31</c:v>
                 </c:pt>
+                <c:pt idx="192">
+                  <c:v>4.3899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>4.12</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>4.1399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>4.57</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>14.92</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>23.39</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>19.809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>10.57</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>6.77</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-24.97</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-29.98</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-5.76</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>4.07</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>8.59</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>18.05</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>24.57</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>25.54</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>22.19</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>20.010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>19.68</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>18.38</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>20.07</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>22.34</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>33.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>42.03</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>38.479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>23.72</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>18.18</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>16.95</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>16.63</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>14.95</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>14.97</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>18.11</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>25.07</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>34.51</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>58.95</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>69.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>38.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>34.43</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>28.6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1777,6 +2065,150 @@
                 </c:pt>
                 <c:pt idx="191">
                   <c:v>9.99</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>4.6399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>4.12</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>4.1399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>4.57</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>8.49</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>11.64</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>10.57</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>6.77</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>5.62</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>3.14</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-5.72</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-0.78</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>4.07</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>8.59</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>12.14</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>18.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>20.03</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>22.19</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>20.010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>18.61</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>16.11</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>13.49</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>12.69</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>14.01</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>14.55</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>16.16</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>19.02</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>20.010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>18.18</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>16.95</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>16.63</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>14.95</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>14.97</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>14.79</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>16.73</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>18.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>21.33</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>23.94</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>22.31</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>21.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2885,8 +3317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2513C063-BB01-5E4E-BC20-809D3836ED8C}">
   <dimension ref="A1:D271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="W38" sqref="W38"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="B243" sqref="B243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5384,313 +5816,745 @@
       <c r="A194" s="1">
         <v>43942.999995312501</v>
       </c>
+      <c r="B194">
+        <v>8.08</v>
+      </c>
+      <c r="C194">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="D194">
+        <v>4.6399999999999997</v>
+      </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>43943.041661979165</v>
       </c>
+      <c r="B195">
+        <v>6.85</v>
+      </c>
+      <c r="C195">
+        <v>4.12</v>
+      </c>
+      <c r="D195">
+        <v>4.12</v>
+      </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>43943.083328645836</v>
       </c>
+      <c r="B196">
+        <v>6.42</v>
+      </c>
+      <c r="C196">
+        <v>3.5</v>
+      </c>
+      <c r="D196">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>43943.124995312501</v>
       </c>
+      <c r="B197">
+        <v>5.87</v>
+      </c>
+      <c r="C197">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="D197">
+        <v>4.1399999999999997</v>
+      </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>43943.166661979165</v>
       </c>
+      <c r="B198">
+        <v>7.33</v>
+      </c>
+      <c r="C198">
+        <v>4.57</v>
+      </c>
+      <c r="D198">
+        <v>4.57</v>
+      </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>43943.208328645836</v>
       </c>
+      <c r="B199">
+        <v>8.27</v>
+      </c>
+      <c r="C199">
+        <v>6</v>
+      </c>
+      <c r="D199">
+        <v>6</v>
+      </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>43943.249995312501</v>
       </c>
+      <c r="B200">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="C200">
+        <v>14.92</v>
+      </c>
+      <c r="D200">
+        <v>8</v>
+      </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>43943.291661979165</v>
       </c>
+      <c r="B201">
+        <v>20.67</v>
+      </c>
+      <c r="C201">
+        <v>23.39</v>
+      </c>
+      <c r="D201">
+        <v>8.49</v>
+      </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>43943.333328645836</v>
       </c>
+      <c r="B202">
+        <v>21</v>
+      </c>
+      <c r="C202">
+        <v>19.809999999999999</v>
+      </c>
+      <c r="D202">
+        <v>11.64</v>
+      </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>43943.374995312501</v>
       </c>
+      <c r="B203">
+        <v>15.07</v>
+      </c>
+      <c r="C203">
+        <v>10.57</v>
+      </c>
+      <c r="D203">
+        <v>10.57</v>
+      </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>43943.416661979165</v>
       </c>
+      <c r="B204">
+        <v>9.09</v>
+      </c>
+      <c r="C204">
+        <v>6.77</v>
+      </c>
+      <c r="D204">
+        <v>6.77</v>
+      </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>43943.458328645836</v>
       </c>
+      <c r="B205">
+        <v>6.74</v>
+      </c>
+      <c r="C205">
+        <v>6.1</v>
+      </c>
+      <c r="D205">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>43943.499995312501</v>
       </c>
+      <c r="B206">
+        <v>6.68</v>
+      </c>
+      <c r="C206">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="D206">
+        <v>5.62</v>
+      </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>43943.541661979165</v>
       </c>
+      <c r="B207">
+        <v>4.67</v>
+      </c>
+      <c r="C207">
+        <v>-24.97</v>
+      </c>
+      <c r="D207">
+        <v>3.14</v>
+      </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>43943.583328645836</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B208">
+        <v>0.94</v>
+      </c>
+      <c r="C208">
+        <v>-29.98</v>
+      </c>
+      <c r="D208">
+        <v>-5.72</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>43943.624995312501</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B209">
+        <v>1.62</v>
+      </c>
+      <c r="C209">
+        <v>-5.76</v>
+      </c>
+      <c r="D209">
+        <v>-0.78</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>43943.666661979165</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B210">
+        <v>5.82</v>
+      </c>
+      <c r="C210">
+        <v>4.07</v>
+      </c>
+      <c r="D210">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>43943.708328645836</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B211">
+        <v>11.16</v>
+      </c>
+      <c r="C211">
+        <v>8.59</v>
+      </c>
+      <c r="D211">
+        <v>8.59</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>43943.749995312501</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B212">
+        <v>19.47</v>
+      </c>
+      <c r="C212">
+        <v>18.05</v>
+      </c>
+      <c r="D212">
+        <v>12.14</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>43943.791661979165</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B213">
+        <v>22.37</v>
+      </c>
+      <c r="C213">
+        <v>24.57</v>
+      </c>
+      <c r="D213">
+        <v>18.850000000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>43943.833328645836</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B214">
+        <v>23.19</v>
+      </c>
+      <c r="C214">
+        <v>25.54</v>
+      </c>
+      <c r="D214">
+        <v>20.03</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>43943.874995312501</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B215">
+        <v>20.67</v>
+      </c>
+      <c r="C215">
+        <v>22.19</v>
+      </c>
+      <c r="D215">
+        <v>22.19</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>43943.916661979165</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B216">
+        <v>19.57</v>
+      </c>
+      <c r="C216">
+        <v>20.010000000000002</v>
+      </c>
+      <c r="D216">
+        <v>20.010000000000002</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>43943.958328645836</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B217">
+        <v>17.670000000000002</v>
+      </c>
+      <c r="C217">
+        <v>19</v>
+      </c>
+      <c r="D217">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>43943.999995312501</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B218">
+        <v>20.09</v>
+      </c>
+      <c r="C218">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="D218">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>43944.041661979165</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B219">
+        <v>18.34</v>
+      </c>
+      <c r="C219">
+        <v>19.68</v>
+      </c>
+      <c r="D219">
+        <v>18.61</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>43944.083328645836</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B220">
+        <v>18.3</v>
+      </c>
+      <c r="C220">
+        <v>18.38</v>
+      </c>
+      <c r="D220">
+        <v>16.11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>43944.124995312501</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B221">
+        <v>18.57</v>
+      </c>
+      <c r="C221">
+        <v>20.07</v>
+      </c>
+      <c r="D221">
+        <v>13.49</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>43944.166661979165</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B222">
+        <v>18.48</v>
+      </c>
+      <c r="C222">
+        <v>20.6</v>
+      </c>
+      <c r="D222">
+        <v>12.69</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>43944.208328645836</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B223">
+        <v>19.84</v>
+      </c>
+      <c r="C223">
+        <v>22.34</v>
+      </c>
+      <c r="D223">
+        <v>14.01</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>43944.249995312501</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B224">
+        <v>24.59</v>
+      </c>
+      <c r="C224">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="D224">
+        <v>14.55</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>43944.291661979165</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B225">
+        <v>21.9</v>
+      </c>
+      <c r="C225">
+        <v>42.03</v>
+      </c>
+      <c r="D225">
+        <v>16.16</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>43944.333328645836</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B226">
+        <v>22</v>
+      </c>
+      <c r="C226">
+        <v>38.479999999999997</v>
+      </c>
+      <c r="D226">
+        <v>19.02</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>43944.374995312501</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B227">
+        <v>19.59</v>
+      </c>
+      <c r="C227">
+        <v>23.72</v>
+      </c>
+      <c r="D227">
+        <v>20.010000000000002</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>43944.416661979165</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B228">
+        <v>18.82</v>
+      </c>
+      <c r="C228">
+        <v>18.18</v>
+      </c>
+      <c r="D228">
+        <v>18.18</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>43944.458328645836</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B229">
+        <v>19.13</v>
+      </c>
+      <c r="C229">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D229">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>43944.499995312501</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B230">
+        <v>17.59</v>
+      </c>
+      <c r="C230">
+        <v>16.95</v>
+      </c>
+      <c r="D230">
+        <v>16.95</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>43944.541661979165</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B231">
+        <v>16.79</v>
+      </c>
+      <c r="C231">
+        <v>16.63</v>
+      </c>
+      <c r="D231">
+        <v>16.63</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>43944.583328645836</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B232">
+        <v>15.01</v>
+      </c>
+      <c r="C232">
+        <v>14.95</v>
+      </c>
+      <c r="D232">
+        <v>14.95</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>43944.624995312501</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B233">
+        <v>15.02</v>
+      </c>
+      <c r="C233">
+        <v>14.97</v>
+      </c>
+      <c r="D233">
+        <v>14.97</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>43944.666661979165</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B234">
+        <v>15.54</v>
+      </c>
+      <c r="C234">
+        <v>18.11</v>
+      </c>
+      <c r="D234">
+        <v>14.79</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>43944.708328645836</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B235">
+        <v>19.09</v>
+      </c>
+      <c r="C235">
+        <v>25.07</v>
+      </c>
+      <c r="D235">
+        <v>16.73</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>43944.749995312501</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B236">
+        <v>20.99</v>
+      </c>
+      <c r="C236">
+        <v>34.51</v>
+      </c>
+      <c r="D236">
+        <v>18.850000000000001</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>43944.791661979165</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B237">
+        <v>20.04</v>
+      </c>
+      <c r="C237">
+        <v>58.95</v>
+      </c>
+      <c r="D237">
+        <v>21.33</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>43944.833328645836</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B238">
+        <v>22.26</v>
+      </c>
+      <c r="C238">
+        <v>69.680000000000007</v>
+      </c>
+      <c r="D238">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>43944.874995312501</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B239">
+        <v>24.71</v>
+      </c>
+      <c r="C239">
+        <v>38.619999999999997</v>
+      </c>
+      <c r="D239">
+        <v>23.94</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>43944.916661979165</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B240">
+        <v>24.32</v>
+      </c>
+      <c r="C240">
+        <v>34.43</v>
+      </c>
+      <c r="D240">
+        <v>22.31</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>43944.958328645836</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B241">
+        <v>21.38</v>
+      </c>
+      <c r="C241">
+        <v>28.6</v>
+      </c>
+      <c r="D241">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>43944.999995312501</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>43945.041661979165</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>43945.083328645836</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>43945.124995312501</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>43945.166661979165</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>43945.208328645836</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>43945.249995312501</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>43945.291661979165</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>43945.333328645836</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>43945.374995312501</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>43945.416661979165</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>43945.458328645836</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>43945.499995312501</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>43945.541661979165</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>43945.583328645836</v>
       </c>
